--- a/files/1039963987_3_1_1_ .xlsx
+++ b/files/1039963987_3_1_1_ .xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amplifon-my.sharepoint.com/personal/alisa_aleksanyan_amplifon_com/Documents/Documentos/python_alisa/saturation/Saturation/Satapp/clock-in-out/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amplifon-my.sharepoint.com/personal/alisa_aleksanyan_amplifon_com/Documents/Documentos/python_alisa/saturation/Saturation/Satapp/agenda_app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{552F94A9-2018-4198-9426-CA9623DB123B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{552F94A9-2018-4198-9426-CA9623DB123B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99C5006A-7111-4CDD-A6AB-87B8C99FF604}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$8:$H$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -487,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -531,6 +534,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -922,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF93D9F3-1A32-4D84-97FA-80FC5EBBA240}">
-  <dimension ref="B1:H48"/>
+  <dimension ref="B1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -1033,50 +1042,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15" thickTop="1">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7">
-        <v>45570.412048611113</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
+    <row r="8" spans="2:8" ht="15" customHeight="1" thickTop="1">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7">
-        <v>45570.399733796294</v>
+        <v>45570.412048611113</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -1084,7 +1079,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>45570.579988425925</v>
+        <v>45570.399733796294</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1104,13 +1099,13 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>45570.394872685181</v>
+        <v>45570.579988425925</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
@@ -1119,10 +1114,10 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -1130,7 +1125,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="7">
-        <v>45570.580960648149</v>
+        <v>45570.394872685181</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1150,25 +1145,25 @@
     </row>
     <row r="13" spans="2:8">
       <c r="B13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7">
-        <v>45570.389189814814</v>
+        <v>45570.580960648149</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -1176,7 +1171,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>45570.608576388891</v>
+        <v>45570.389189814814</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -1196,13 +1191,13 @@
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7">
-        <v>45570.392719907402</v>
+        <v>45570.608576388891</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
@@ -1214,7 +1209,7 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -1222,7 +1217,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="7">
-        <v>45570.562118055554</v>
+        <v>45570.392719907402</v>
       </c>
       <c r="D16" t="s">
         <v>35</v>
@@ -1242,25 +1237,25 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7">
-        <v>45570.384074074078</v>
+        <v>45570.562118055554</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -1268,7 +1263,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="7">
-        <v>45570.562534722223</v>
+        <v>45570.384074074078</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -1288,25 +1283,25 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
-        <v>45570.398020833338</v>
+        <v>45570.562534722223</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -1314,7 +1309,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="7">
-        <v>45570.593298611115</v>
+        <v>45570.398020833338</v>
       </c>
       <c r="D20" t="s">
         <v>43</v>
@@ -1334,25 +1329,25 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C21" s="7">
-        <v>45570.418483796289</v>
+        <v>45570.593298611115</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -1360,7 +1355,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="7">
-        <v>45570.589803240742</v>
+        <v>45570.418483796289</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1380,13 +1375,13 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="7">
-        <v>45570.394606481481</v>
+        <v>45570.589803240742</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
@@ -1398,7 +1393,7 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -1406,7 +1401,7 @@
         <v>48</v>
       </c>
       <c r="C24" s="7">
-        <v>45570.562754629631</v>
+        <v>45570.394606481481</v>
       </c>
       <c r="D24" t="s">
         <v>49</v>
@@ -1426,19 +1421,19 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25" s="7">
-        <v>45570.389467592591</v>
+        <v>45570.562754629631</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
         <v>18</v>
@@ -1452,7 +1447,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="7">
-        <v>45570.564444444441</v>
+        <v>45570.389467592591</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
@@ -1472,13 +1467,13 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C27" s="7">
-        <v>45570.399305555555</v>
+        <v>45570.564444444441</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
         <v>53</v>
@@ -1490,7 +1485,7 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -1498,7 +1493,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="7">
-        <v>45570.565312499995</v>
+        <v>45570.399305555555</v>
       </c>
       <c r="D28" t="s">
         <v>56</v>
@@ -1518,10 +1513,10 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="7">
-        <v>45570.389212962968</v>
+        <v>45570.565312499995</v>
       </c>
       <c r="D29" t="s">
         <v>56</v>
@@ -1536,7 +1531,7 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -1544,7 +1539,7 @@
         <v>57</v>
       </c>
       <c r="C30" s="7">
-        <v>45570.566388888888</v>
+        <v>45570.389212962968</v>
       </c>
       <c r="D30" t="s">
         <v>56</v>
@@ -1564,10 +1559,10 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="7">
-        <v>45570.394224537042</v>
+        <v>45570.566388888888</v>
       </c>
       <c r="D31" t="s">
         <v>56</v>
@@ -1582,7 +1577,7 @@
         <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -1590,7 +1585,7 @@
         <v>59</v>
       </c>
       <c r="C32" s="7">
-        <v>45570.564803240741</v>
+        <v>45570.394224537042</v>
       </c>
       <c r="D32" t="s">
         <v>56</v>
@@ -1610,25 +1605,25 @@
     </row>
     <row r="33" spans="2:8">
       <c r="B33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="7">
-        <v>45570.398229166669</v>
+        <v>45570.564803240741</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G33" t="s">
         <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:8">
@@ -1636,7 +1631,7 @@
         <v>60</v>
       </c>
       <c r="C34" s="7">
-        <v>45570.568472222221</v>
+        <v>45570.398229166669</v>
       </c>
       <c r="D34" t="s">
         <v>61</v>
@@ -1656,25 +1651,25 @@
     </row>
     <row r="35" spans="2:8">
       <c r="B35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C35" s="7">
-        <v>45570.400046296301</v>
+        <v>45570.568472222221</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G35" t="s">
         <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:8">
@@ -1682,7 +1677,7 @@
         <v>65</v>
       </c>
       <c r="C36" s="7">
-        <v>45570.567615740736</v>
+        <v>45570.400046296301</v>
       </c>
       <c r="D36" t="s">
         <v>66</v>
@@ -1702,25 +1697,25 @@
     </row>
     <row r="37" spans="2:8">
       <c r="B37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C37" s="7">
-        <v>45570.388969907406</v>
+        <v>45570.567615740736</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G37" t="s">
         <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -1728,7 +1723,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="7">
-        <v>45570.573969907404</v>
+        <v>45570.388969907406</v>
       </c>
       <c r="D38" t="s">
         <v>69</v>
@@ -1748,13 +1743,13 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C39" s="7">
-        <v>45570.390613425923</v>
+        <v>45570.573969907404</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E39" t="s">
         <v>62</v>
@@ -1766,7 +1761,7 @@
         <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="2:8">
@@ -1774,7 +1769,7 @@
         <v>71</v>
       </c>
       <c r="C40" s="7">
-        <v>45570.562916666669</v>
+        <v>45570.390613425923</v>
       </c>
       <c r="D40" t="s">
         <v>72</v>
@@ -1794,25 +1789,25 @@
     </row>
     <row r="41" spans="2:8">
       <c r="B41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="7">
-        <v>45570.413437499999</v>
+        <v>45570.562916666669</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F41" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G41" t="s">
         <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:8">
@@ -1820,7 +1815,7 @@
         <v>74</v>
       </c>
       <c r="C42" s="7">
-        <v>45570.781724537039</v>
+        <v>45570.413437499999</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
@@ -1840,25 +1835,25 @@
     </row>
     <row r="43" spans="2:8">
       <c r="B43" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C43" s="7">
-        <v>45570.388912037037</v>
+        <v>45570.781724537039</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -1866,7 +1861,7 @@
         <v>79</v>
       </c>
       <c r="C44" s="7">
-        <v>45570.564097222217</v>
+        <v>45570.388912037037</v>
       </c>
       <c r="D44" t="s">
         <v>52</v>
@@ -1886,25 +1881,25 @@
     </row>
     <row r="45" spans="2:8">
       <c r="B45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" s="7">
-        <v>45570.701678240737</v>
+        <v>45570.564097222217</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="2:8">
@@ -1912,7 +1907,7 @@
         <v>80</v>
       </c>
       <c r="C46" s="7">
-        <v>45570.784849537034</v>
+        <v>45570.701678240737</v>
       </c>
       <c r="D46" t="s">
         <v>81</v>
@@ -1932,25 +1927,25 @@
     </row>
     <row r="47" spans="2:8">
       <c r="B47" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C47" s="7">
-        <v>45570.421863425923</v>
+        <v>45570.784849537034</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s">
         <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -1958,7 +1953,7 @@
         <v>85</v>
       </c>
       <c r="C48" s="7">
-        <v>45570.591956018521</v>
+        <v>45570.421863425923</v>
       </c>
       <c r="D48" t="s">
         <v>86</v>
@@ -1976,7 +1971,31 @@
         <v>89</v>
       </c>
     </row>
+    <row r="49" spans="2:8">
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="7">
+        <v>45570.591956018521</v>
+      </c>
+      <c r="D49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="B8:H8" xr:uid="{FF93D9F3-1A32-4D84-97FA-80FC5EBBA240}"/>
   <mergeCells count="8">
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="G6:G7"/>

--- a/files/1039963987_3_1_1_ .xlsx
+++ b/files/1039963987_3_1_1_ .xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amplifon-my.sharepoint.com/personal/alisa_aleksanyan_amplifon_com/Documents/Documentos/python_alisa/saturation/Saturation/Satapp/agenda_app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{552F94A9-2018-4198-9426-CA9623DB123B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99C5006A-7111-4CDD-A6AB-87B8C99FF604}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{552F94A9-2018-4198-9426-CA9623DB123B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B3EB911-0442-42C2-9C0C-54932E1AD7DD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$8:$H$8</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -490,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -534,12 +531,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -931,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF93D9F3-1A32-4D84-97FA-80FC5EBBA240}">
-  <dimension ref="B1:H49"/>
+  <dimension ref="B1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -1042,36 +1033,50 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" thickTop="1">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+    <row r="8" spans="2:8" ht="15" thickTop="1">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45570.412048611113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>45570.412048611113</v>
+        <v>45570.399733796294</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -1079,7 +1084,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>45570.399733796294</v>
+        <v>45570.579988425925</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1099,13 +1104,13 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C11" s="7">
-        <v>45570.579988425925</v>
+        <v>45570.394872685181</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
@@ -1114,10 +1119,10 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -1125,7 +1130,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="7">
-        <v>45570.394872685181</v>
+        <v>45570.580960648149</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1145,25 +1150,25 @@
     </row>
     <row r="13" spans="2:8">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
-        <v>45570.580960648149</v>
+        <v>45570.389189814814</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -1171,7 +1176,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>45570.389189814814</v>
+        <v>45570.608576388891</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -1191,13 +1196,13 @@
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C15" s="7">
-        <v>45570.608576388891</v>
+        <v>45570.392719907402</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
@@ -1209,7 +1214,7 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -1217,7 +1222,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="7">
-        <v>45570.392719907402</v>
+        <v>45570.562118055554</v>
       </c>
       <c r="D16" t="s">
         <v>35</v>
@@ -1237,25 +1242,25 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7">
-        <v>45570.562118055554</v>
+        <v>45570.384074074078</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -1263,7 +1268,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="7">
-        <v>45570.384074074078</v>
+        <v>45570.562534722223</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -1283,25 +1288,25 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C19" s="7">
-        <v>45570.562534722223</v>
+        <v>45570.398020833338</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -1309,7 +1314,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="7">
-        <v>45570.398020833338</v>
+        <v>45570.593298611115</v>
       </c>
       <c r="D20" t="s">
         <v>43</v>
@@ -1329,25 +1334,25 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C21" s="7">
-        <v>45570.593298611115</v>
+        <v>45570.418483796289</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -1355,7 +1360,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="7">
-        <v>45570.418483796289</v>
+        <v>45570.589803240742</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1375,13 +1380,13 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="7">
-        <v>45570.589803240742</v>
+        <v>45570.394606481481</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
@@ -1393,7 +1398,7 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -1401,7 +1406,7 @@
         <v>48</v>
       </c>
       <c r="C24" s="7">
-        <v>45570.394606481481</v>
+        <v>45570.562754629631</v>
       </c>
       <c r="D24" t="s">
         <v>49</v>
@@ -1421,19 +1426,19 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C25" s="7">
-        <v>45570.562754629631</v>
+        <v>45570.389467592591</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
         <v>18</v>
@@ -1447,7 +1452,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="7">
-        <v>45570.389467592591</v>
+        <v>45570.564444444441</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
@@ -1467,13 +1472,13 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C27" s="7">
-        <v>45570.564444444441</v>
+        <v>45570.399305555555</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>53</v>
@@ -1485,7 +1490,7 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -1493,7 +1498,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="7">
-        <v>45570.399305555555</v>
+        <v>45570.565312499995</v>
       </c>
       <c r="D28" t="s">
         <v>56</v>
@@ -1513,10 +1518,10 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" s="7">
-        <v>45570.565312499995</v>
+        <v>45570.389212962968</v>
       </c>
       <c r="D29" t="s">
         <v>56</v>
@@ -1531,7 +1536,7 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -1539,7 +1544,7 @@
         <v>57</v>
       </c>
       <c r="C30" s="7">
-        <v>45570.389212962968</v>
+        <v>45570.566388888888</v>
       </c>
       <c r="D30" t="s">
         <v>56</v>
@@ -1559,10 +1564,10 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C31" s="7">
-        <v>45570.566388888888</v>
+        <v>45570.394224537042</v>
       </c>
       <c r="D31" t="s">
         <v>56</v>
@@ -1577,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -1585,7 +1590,7 @@
         <v>59</v>
       </c>
       <c r="C32" s="7">
-        <v>45570.394224537042</v>
+        <v>45570.564803240741</v>
       </c>
       <c r="D32" t="s">
         <v>56</v>
@@ -1605,25 +1610,25 @@
     </row>
     <row r="33" spans="2:8">
       <c r="B33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C33" s="7">
-        <v>45570.564803240741</v>
+        <v>45570.398229166669</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
         <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:8">
@@ -1631,7 +1636,7 @@
         <v>60</v>
       </c>
       <c r="C34" s="7">
-        <v>45570.398229166669</v>
+        <v>45570.568472222221</v>
       </c>
       <c r="D34" t="s">
         <v>61</v>
@@ -1651,25 +1656,25 @@
     </row>
     <row r="35" spans="2:8">
       <c r="B35" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C35" s="7">
-        <v>45570.568472222221</v>
+        <v>45570.400046296301</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G35" t="s">
         <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="2:8">
@@ -1677,7 +1682,7 @@
         <v>65</v>
       </c>
       <c r="C36" s="7">
-        <v>45570.400046296301</v>
+        <v>45570.567615740736</v>
       </c>
       <c r="D36" t="s">
         <v>66</v>
@@ -1697,25 +1702,25 @@
     </row>
     <row r="37" spans="2:8">
       <c r="B37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C37" s="7">
-        <v>45570.567615740736</v>
+        <v>45570.388969907406</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G37" t="s">
         <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -1723,7 +1728,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="7">
-        <v>45570.388969907406</v>
+        <v>45570.573969907404</v>
       </c>
       <c r="D38" t="s">
         <v>69</v>
@@ -1743,13 +1748,13 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C39" s="7">
-        <v>45570.573969907404</v>
+        <v>45570.390613425923</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
         <v>62</v>
@@ -1761,7 +1766,7 @@
         <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="2:8">
@@ -1769,7 +1774,7 @@
         <v>71</v>
       </c>
       <c r="C40" s="7">
-        <v>45570.390613425923</v>
+        <v>45570.562916666669</v>
       </c>
       <c r="D40" t="s">
         <v>72</v>
@@ -1789,25 +1794,25 @@
     </row>
     <row r="41" spans="2:8">
       <c r="B41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C41" s="7">
-        <v>45570.562916666669</v>
+        <v>45570.413437499999</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s">
         <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="2:8">
@@ -1815,7 +1820,7 @@
         <v>74</v>
       </c>
       <c r="C42" s="7">
-        <v>45570.413437499999</v>
+        <v>45570.781724537039</v>
       </c>
       <c r="D42" t="s">
         <v>75</v>
@@ -1835,25 +1840,25 @@
     </row>
     <row r="43" spans="2:8">
       <c r="B43" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C43" s="7">
-        <v>45570.781724537039</v>
+        <v>45570.388912037037</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:8">
@@ -1861,7 +1866,7 @@
         <v>79</v>
       </c>
       <c r="C44" s="7">
-        <v>45570.388912037037</v>
+        <v>45570.564097222217</v>
       </c>
       <c r="D44" t="s">
         <v>52</v>
@@ -1881,25 +1886,25 @@
     </row>
     <row r="45" spans="2:8">
       <c r="B45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C45" s="7">
-        <v>45570.564097222217</v>
+        <v>45570.701678240737</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="2:8">
@@ -1907,7 +1912,7 @@
         <v>80</v>
       </c>
       <c r="C46" s="7">
-        <v>45570.701678240737</v>
+        <v>45570.784849537034</v>
       </c>
       <c r="D46" t="s">
         <v>81</v>
@@ -1927,25 +1932,25 @@
     </row>
     <row r="47" spans="2:8">
       <c r="B47" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C47" s="7">
-        <v>45570.784849537034</v>
+        <v>45570.421863425923</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E47" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s">
         <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -1953,7 +1958,7 @@
         <v>85</v>
       </c>
       <c r="C48" s="7">
-        <v>45570.421863425923</v>
+        <v>45570.591956018521</v>
       </c>
       <c r="D48" t="s">
         <v>86</v>
@@ -1971,31 +1976,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
-      <c r="B49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="7">
-        <v>45570.591956018521</v>
-      </c>
-      <c r="D49" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" t="s">
-        <v>87</v>
-      </c>
-      <c r="F49" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" t="s">
-        <v>89</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B8:H8" xr:uid="{FF93D9F3-1A32-4D84-97FA-80FC5EBBA240}"/>
   <mergeCells count="8">
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="G6:G7"/>
